--- a/excel/3.xlsx
+++ b/excel/3.xlsx
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
       </c>
       <c r="X3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="b">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
       </c>
       <c r="U9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="b">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="b">
         <v>0</v>
       </c>
       <c r="U14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="b">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1759,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="b">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="b">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
@@ -1990,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="b">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>

--- a/excel/3.xlsx
+++ b/excel/3.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Sarah J</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,67 +486,67 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Yihan</t>
+          <t>Phoebe</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Phoebe</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Haranoosh</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Haranoosh</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>Gia Huy</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Gia Huy</t>
+          <t>Ritchel</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Ritchel</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Tommy</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Tommy</t>
+          <t>Vicky Z</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Vicky Z</t>
+          <t>Winnie</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Winnie</t>
+          <t>Fiona</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Fiona</t>
+          <t>Sarah Z</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -580,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1105,17 +1105,17 @@
         <v>0</v>
       </c>
       <c r="Y8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Sarah J</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="b">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Yihan</t>
+          <t>Phoebe</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1427,11 +1427,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Phoebe</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="b">
         <v>0</v>
@@ -1506,7 +1506,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Haranoosh</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="b">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="b">
         <v>0</v>
@@ -1585,7 +1585,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Haranoosh</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1640,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="b">
         <v>0</v>
       </c>
       <c r="U15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="b">
         <v>0</v>
@@ -1664,7 +1664,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -1674,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1743,7 +1743,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>Gia Huy</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="b">
         <v>0</v>
@@ -1822,14 +1822,14 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Gia Huy</t>
+          <t>Ritchel</t>
         </is>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="b">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Ritchel</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Tommy</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -1990,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -2059,7 +2059,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Tommy</t>
+          <t>Vicky Z</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -2138,7 +2138,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Vicky Z</t>
+          <t>Winnie</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -2157,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="Y22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Winnie</t>
+          <t>Fiona</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -2296,7 +2296,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fiona</t>
+          <t>Sarah Z</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -2336,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
       </c>
       <c r="Q24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>

--- a/excel/3.xlsx
+++ b/excel/3.xlsx
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
       </c>
       <c r="U4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="b">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="b">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="b">
         <v>0</v>
@@ -1911,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2260,22 +2260,22 @@
         <v>0</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
       </c>
       <c r="Q23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
       </c>
       <c r="S23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="b">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -2348,13 +2348,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
       </c>
       <c r="T24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
@@ -2382,13 +2382,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="b">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>

--- a/excel/3.xlsx
+++ b/excel/3.xlsx
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
       </c>
       <c r="U3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -881,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1075,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1154,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1905,13 +1905,13 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="b">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="b">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="b">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="b">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>

--- a/excel/3.xlsx
+++ b/excel/3.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Cripps</t>
+          <t>Verna</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -601,10 +601,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
       </c>
       <c r="U3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
       </c>
       <c r="W7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1081,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="b">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="b">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="b">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -2066,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="b">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -2190,13 +2190,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
       </c>
       <c r="T22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="b">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="b">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="b">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -2375,14 +2375,14 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Cripps</t>
+          <t>Verna</t>
         </is>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>

--- a/excel/3.xlsx
+++ b/excel/3.xlsx
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -908,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1081,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
       </c>
       <c r="S8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="b">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="b">
         <v>1</v>
       </c>
       <c r="X10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="b">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1668,10 +1668,10 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="b">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
       </c>
       <c r="X20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
@@ -2072,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="b">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2184,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="b">
         <v>0</v>
       </c>
       <c r="R22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
       </c>
       <c r="T22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="b">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="b">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>

--- a/excel/3.xlsx
+++ b/excel/3.xlsx
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -765,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="b">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
       </c>
       <c r="Y7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="b">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1400,16 +1400,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="b">
         <v>0</v>
       </c>
       <c r="U12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="b">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="b">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1564,16 +1564,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
       </c>
       <c r="W14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="b">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="b">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="b">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2427,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="b">
         <v>0</v>
